--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F700B81-E082-4429-A1A4-3C23CA07BAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89D888-51A5-4FED-9790-4BC77E70A6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,8 @@
     <sheet name="Pais" sheetId="6" r:id="rId5"/>
     <sheet name="Departamento" sheetId="7" r:id="rId6"/>
     <sheet name="Ciudad" sheetId="8" r:id="rId7"/>
-    <sheet name="TipoIdentificacion" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -145,18 +143,6 @@
   </si>
   <si>
     <t>Marinilla</t>
-  </si>
-  <si>
-    <t>RUT</t>
-  </si>
-  <si>
-    <t>CUIT</t>
-  </si>
-  <si>
-    <t>NIT</t>
-  </si>
-  <si>
-    <t>RUN</t>
   </si>
   <si>
     <t>Contexto</t>
@@ -416,22 +402,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438956</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57582</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>467848</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49ACE5D5-80C2-E791-DBEE-CA88A857E0B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB3FACA-678E-0BE6-640C-7A0DCEDDC8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -447,8 +433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="771525"/>
-          <a:ext cx="5772956" cy="3096057"/>
+          <a:off x="38100" y="838200"/>
+          <a:ext cx="8049748" cy="4305901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -858,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -872,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -886,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
@@ -897,10 +883,10 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>3</v>
@@ -911,10 +897,10 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>3</v>
@@ -939,184 +925,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="str">
-        <f>TipoIdentificacion!C4</f>
-        <v>NIT</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="str">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <f>Horariolaboral!D2</f>
         <v>8:00-19:00</v>
       </c>
-      <c r="E2" s="13" t="str">
+      <c r="D2" s="13" t="str">
         <f>Ciudad!E2</f>
         <v>Rionegro-Antioquia-Colombia</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1">
         <v>54323243</v>
       </c>
-      <c r="I2" s="5" t="str">
-        <f>B2&amp;"-"&amp;E2&amp;"-"&amp;F2</f>
-        <v>NIT-Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
-      </c>
-      <c r="J2" s="15" t="str">
-        <f>G2&amp;"-"&amp;H2</f>
+      <c r="H2" s="5" t="str">
+        <f>D2&amp;"-"&amp;E2</f>
+        <v>Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
+      </c>
+      <c r="I2" s="15" t="str">
+        <f>F2&amp;"-"&amp;G2</f>
         <v>SucursalRionegro@gmail.com-54323243</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="str">
-        <f>TipoIdentificacion!C4</f>
-        <v>NIT</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="str">
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="str">
         <f>Horariolaboral!D3</f>
         <v>6:00-17:00</v>
       </c>
-      <c r="E3" s="13" t="str">
+      <c r="D3" s="13" t="str">
         <f>Ciudad!E3</f>
         <v>Marinilla-Antioquia-Colombia</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1">
         <v>3214321</v>
       </c>
-      <c r="I3" s="5" t="str">
-        <f>B3&amp;"-"&amp;E3&amp;"-"&amp;F3</f>
-        <v>NIT-Marinilla-Antioquia-Colombia-CL 63 9 36</v>
-      </c>
-      <c r="J3" s="15" t="str">
-        <f>G3&amp;"-"&amp;H3</f>
+      <c r="H3" s="5" t="str">
+        <f t="shared" ref="H3:H4" si="0">D3&amp;"-"&amp;E3</f>
+        <v>Marinilla-Antioquia-Colombia-CL 63 9 36</v>
+      </c>
+      <c r="I3" s="15" t="str">
+        <f>F3&amp;"-"&amp;G3</f>
         <v>SucursalMarinilla@gmail.com-3214321</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="str">
-        <f>TipoIdentificacion!C4</f>
-        <v>NIT</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <f>Horariolaboral!D2</f>
         <v>8:00-19:00</v>
       </c>
-      <c r="E4" s="13" t="str">
+      <c r="D4" s="13" t="str">
         <f>Ciudad!E4</f>
         <v>Medellin-Antioquia-Colombia</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1">
         <v>5632421</v>
       </c>
-      <c r="I4" s="5" t="str">
-        <f>B4&amp;"-"&amp;E4&amp;"-"&amp;F4</f>
-        <v>NIT-Medellin-Antioquia-Colombia-CR 2 5 39</v>
-      </c>
-      <c r="J4" s="15" t="str">
-        <f>G4&amp;"-"&amp;H4</f>
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Medellin-Antioquia-Colombia-CR 2 5 39</v>
+      </c>
+      <c r="I4" s="15" t="str">
+        <f>F4&amp;"-"&amp;G4</f>
         <v>SucursalPoblado@gmail.com-5632421</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="10"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" location="TipoIdentificacion!C4" display="TipoIdentificacion!C4" xr:uid="{99331531-149B-4697-B677-7BF6638CAEC8}"/>
-    <hyperlink ref="B3" location="TipoIdentificacion!C4" display="TipoIdentificacion!C4" xr:uid="{592A1D9F-4248-4D41-8C28-54D5FA6576C8}"/>
-    <hyperlink ref="B4" location="TipoIdentificacion!C4" display="TipoIdentificacion!C4" xr:uid="{0A2CF45A-6E62-46DB-8001-4511A6F6E666}"/>
-    <hyperlink ref="E2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{2B6EFE98-886D-482A-B20E-687296015F04}"/>
-    <hyperlink ref="E3:E4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{BC45D5CC-AD1A-4653-96DD-CDBDC908237C}"/>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{0663BB21-9A43-4B1D-8A21-551F857989D3}"/>
-    <hyperlink ref="G3:G4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{F9F2D69F-AEA3-489F-9DFD-69BF6E19218A}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{5F355592-918F-4243-92D4-800C7FC291AF}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{A86DA135-0247-4A09-A184-77E7675764A2}"/>
+    <hyperlink ref="D2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{2B6EFE98-886D-482A-B20E-687296015F04}"/>
+    <hyperlink ref="D3:D4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{BC45D5CC-AD1A-4653-96DD-CDBDC908237C}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{0663BB21-9A43-4B1D-8A21-551F857989D3}"/>
+    <hyperlink ref="F3:F4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{F9F2D69F-AEA3-489F-9DFD-69BF6E19218A}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{5F355592-918F-4243-92D4-800C7FC291AF}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{A86DA135-0247-4A09-A184-77E7675764A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1127,7 +1094,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,10 +1107,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>15</v>
@@ -1154,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2</f>
@@ -1169,10 +1136,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>B3&amp;"-"&amp;C3</f>
@@ -1339,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91524816-6EF0-4C72-9C90-F3A24E79B63C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1448,80 +1415,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8BDB0-B92E-403D-81E8-218137D380CF}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>B2</f>
-        <v>RUT</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f>B3</f>
-        <v>CUIT</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f>B4</f>
-        <v>NIT</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f>B5</f>
-        <v>RUN</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89D888-51A5-4FED-9790-4BC77E70A6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDF5FF-6107-4E64-BD41-47010D75455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Pais" sheetId="6" r:id="rId5"/>
     <sheet name="Departamento" sheetId="7" r:id="rId6"/>
     <sheet name="Ciudad" sheetId="8" r:id="rId7"/>
+    <sheet name="Inventario" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -212,6 +213,18 @@
   </si>
   <si>
     <t>Objeto de dominio que contiene la hora de inicio y hora de cerrada de la sucursal</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de los inventarios que tienen las sedes del spa</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>inventarios</t>
   </si>
 </sst>
 </file>
@@ -281,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -326,12 +339,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -379,6 +403,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -402,22 +435,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>467848</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>601</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448482</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB3FACA-678E-0BE6-640C-7A0DCEDDC8B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E890F410-92F4-D1D8-382B-1667333D1567}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -433,8 +466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="838200"/>
-          <a:ext cx="8049748" cy="4305901"/>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="5782482" cy="3048425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -797,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,6 +940,20 @@
       </c>
       <c r="D7" s="11" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -925,10 +972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,13 +985,14 @@
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -961,19 +1009,22 @@
         <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -991,22 +1042,26 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="1" t="str">
+        <f>Inventario!C2</f>
+        <v>Inventario-1</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>54323243</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="I2" s="5" t="str">
         <f>D2&amp;"-"&amp;E2</f>
         <v>Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
       </c>
-      <c r="I2" s="15" t="str">
-        <f>F2&amp;"-"&amp;G2</f>
+      <c r="J2" s="15" t="str">
+        <f>G2&amp;"-"&amp;H2</f>
         <v>SucursalRionegro@gmail.com-54323243</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1024,22 +1079,26 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="1" t="str">
+        <f>Inventario!C3</f>
+        <v>Inventario-2</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>3214321</v>
       </c>
-      <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H4" si="0">D3&amp;"-"&amp;E3</f>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I4" si="0">D3&amp;"-"&amp;E3</f>
         <v>Marinilla-Antioquia-Colombia-CL 63 9 36</v>
       </c>
-      <c r="I3" s="15" t="str">
-        <f>F3&amp;"-"&amp;G3</f>
+      <c r="J3" s="15" t="str">
+        <f>G3&amp;"-"&amp;H3</f>
         <v>SucursalMarinilla@gmail.com-3214321</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1057,33 +1116,38 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="1" t="str">
+        <f>Inventario!C4</f>
+        <v>Inventario-3</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>5632421</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Medellin-Antioquia-Colombia-CR 2 5 39</v>
       </c>
-      <c r="I4" s="15" t="str">
-        <f>F4&amp;"-"&amp;G4</f>
+      <c r="J4" s="15" t="str">
+        <f>G4&amp;"-"&amp;H4</f>
         <v>SucursalPoblado@gmail.com-5632421</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{2B6EFE98-886D-482A-B20E-687296015F04}"/>
     <hyperlink ref="D3:D4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{BC45D5CC-AD1A-4653-96DD-CDBDC908237C}"/>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{0663BB21-9A43-4B1D-8A21-551F857989D3}"/>
-    <hyperlink ref="F3:F4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{F9F2D69F-AEA3-489F-9DFD-69BF6E19218A}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{5F355592-918F-4243-92D4-800C7FC291AF}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{A86DA135-0247-4A09-A184-77E7675764A2}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{0663BB21-9A43-4B1D-8A21-551F857989D3}"/>
+    <hyperlink ref="G3:G4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{F9F2D69F-AEA3-489F-9DFD-69BF6E19218A}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{5F355592-918F-4243-92D4-800C7FC291AF}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{A86DA135-0247-4A09-A184-77E7675764A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1306,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91524816-6EF0-4C72-9C90-F3A24E79B63C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1415,4 +1479,69 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EACB77D-2A20-413B-9FA4-D016C0CBC4F2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>B2&amp;"-"&amp;A2</f>
+        <v>Inventario-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C4" si="0">B3&amp;"-"&amp;A3</f>
+        <v>Inventario-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Inventario-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDF5FF-6107-4E64-BD41-47010D75455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FD699F-BBFD-40C7-A8D3-7921F1DD99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -406,10 +406,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,22 +435,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>448482</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77290</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E890F410-92F4-D1D8-382B-1667333D1567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C291A93B-7FFC-CB20-2760-95BB4D588041}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -466,8 +466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="742950"/>
-          <a:ext cx="5782482" cy="3048425"/>
+          <a:off x="647700" y="762000"/>
+          <a:ext cx="7811590" cy="4067743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1485,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EACB77D-2A20-413B-9FA4-D016C0CBC4F2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FD699F-BBFD-40C7-A8D3-7921F1DD99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC6D09-5BBA-4B68-A063-C1D4082A6FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
-    <sheet name="Sucursal" sheetId="5" r:id="rId3"/>
-    <sheet name="Horariolaboral" sheetId="10" r:id="rId4"/>
-    <sheet name="Pais" sheetId="6" r:id="rId5"/>
-    <sheet name="Departamento" sheetId="7" r:id="rId6"/>
-    <sheet name="Ciudad" sheetId="8" r:id="rId7"/>
-    <sheet name="Inventario" sheetId="11" r:id="rId8"/>
+    <sheet name="Pais" sheetId="6" r:id="rId3"/>
+    <sheet name="Departamento" sheetId="7" r:id="rId4"/>
+    <sheet name="Ciudad" sheetId="8" r:id="rId5"/>
+    <sheet name="Sucursal" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -158,9 +156,6 @@
     <t xml:space="preserve">Objeto de domino que contiene el nombre de las ciudades  que pertenecen a un departamento determinado </t>
   </si>
   <si>
-    <t>TipoIdentificacion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objeto de domino que representa cada uno de los tipos de identificacion tributaria de los negocios en un pais </t>
   </si>
   <si>
@@ -191,40 +186,13 @@
     <t>SucursalPoblado@gmail.com</t>
   </si>
   <si>
-    <t>HoraInicio</t>
-  </si>
-  <si>
-    <t>HoraFin</t>
-  </si>
-  <si>
-    <t>8:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>6:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>HorarioLaboral</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la hora de inicio y hora de cerrada de la sucursal</t>
-  </si>
-  <si>
-    <t>Inventario</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la informacion de los inventarios que tienen las sedes del spa</t>
-  </si>
-  <si>
     <t>Referenciado</t>
   </si>
   <si>
-    <t>inventarios</t>
+    <t>Instituciones</t>
+  </si>
+  <si>
+    <t>Institucion</t>
   </si>
 </sst>
 </file>
@@ -294,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -317,45 +285,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -385,31 +320,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,22 +346,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77290</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>67243</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401595</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C291A93B-7FFC-CB20-2760-95BB4D588041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA24E77-FA75-38A0-2106-FFD0789BA7F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -466,8 +377,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="762000"/>
-          <a:ext cx="7811590" cy="4067743"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11069595" cy="3848637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -830,10 +741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +752,7 @@
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,45 +826,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>53</v>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +846,6 @@
     <hyperlink ref="A4" location="Departamento!A1" display="Departamento" xr:uid="{5D026B1D-2A71-48AE-98F7-6FB6CEFAF94D}"/>
     <hyperlink ref="A5" location="Ciudad!A1" display="Ciudad" xr:uid="{3DB588EF-D6FF-42B3-9C3C-3D065A0B0817}"/>
     <hyperlink ref="A6" location="TipoIdentificacion!A1" display="TipoIdentificacion" xr:uid="{91E801FD-E3D2-4D3E-A38E-3A408F0036DE}"/>
-    <hyperlink ref="A7" location="Horariolaboral!A1" display="HorarioLaboral" xr:uid="{42307088-3605-42F0-9CC7-72E8A9416A8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -971,252 +853,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>Horariolaboral!D2</f>
-        <v>8:00-19:00</v>
-      </c>
-      <c r="D2" s="13" t="str">
-        <f>Ciudad!E2</f>
-        <v>Rionegro-Antioquia-Colombia</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>Inventario!C2</f>
-        <v>Inventario-1</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1">
-        <v>54323243</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>D2&amp;"-"&amp;E2</f>
-        <v>Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
-      </c>
-      <c r="J2" s="15" t="str">
-        <f>G2&amp;"-"&amp;H2</f>
-        <v>SucursalRionegro@gmail.com-54323243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>Horariolaboral!D3</f>
-        <v>6:00-17:00</v>
-      </c>
-      <c r="D3" s="13" t="str">
-        <f>Ciudad!E3</f>
-        <v>Marinilla-Antioquia-Colombia</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>Inventario!C3</f>
-        <v>Inventario-2</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3214321</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I4" si="0">D3&amp;"-"&amp;E3</f>
-        <v>Marinilla-Antioquia-Colombia-CL 63 9 36</v>
-      </c>
-      <c r="J3" s="15" t="str">
-        <f>G3&amp;"-"&amp;H3</f>
-        <v>SucursalMarinilla@gmail.com-3214321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>Horariolaboral!D2</f>
-        <v>8:00-19:00</v>
-      </c>
-      <c r="D4" s="13" t="str">
-        <f>Ciudad!E4</f>
-        <v>Medellin-Antioquia-Colombia</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f>Inventario!C4</f>
-        <v>Inventario-3</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5632421</v>
-      </c>
-      <c r="I4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Medellin-Antioquia-Colombia-CR 2 5 39</v>
-      </c>
-      <c r="J4" s="15" t="str">
-        <f>G4&amp;"-"&amp;H4</f>
-        <v>SucursalPoblado@gmail.com-5632421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{2B6EFE98-886D-482A-B20E-687296015F04}"/>
-    <hyperlink ref="D3:D4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{BC45D5CC-AD1A-4653-96DD-CDBDC908237C}"/>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{0663BB21-9A43-4B1D-8A21-551F857989D3}"/>
-    <hyperlink ref="G3:G4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{F9F2D69F-AEA3-489F-9DFD-69BF6E19218A}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{5F355592-918F-4243-92D4-800C7FC291AF}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{A86DA135-0247-4A09-A184-77E7675764A2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5576EA1-41AD-4B56-A015-05E993B07C02}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>8:00-19:00</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>B3&amp;"-"&amp;C3</f>
-        <v>6:00-17:00</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8CC05-D5A5-4217-82D6-119F47E099F6}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1279,7 +915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A945E5-5B27-42C4-B638-F59EC3627386}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1366,7 +1002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91524816-6EF0-4C72-9C90-F3A24E79B63C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1481,67 +1117,152 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EACB77D-2A20-413B-9FA4-D016C0CBC4F2}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>B2&amp;"-"&amp;A2</f>
-        <v>Inventario-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="str">
+        <f>Ciudad!E2</f>
+        <v>Rionegro-Antioquia-Colombia</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1">
+        <v>54323243</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>C2&amp;"-"&amp;D2</f>
+        <v>Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
+      </c>
+      <c r="H2" s="15" t="str">
+        <f>E2&amp;"-"&amp;F2</f>
+        <v>SucursalRionegro@gmail.com-54323243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C4" si="0">B3&amp;"-"&amp;A3</f>
-        <v>Inventario-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>Ciudad!E3</f>
+        <v>Marinilla-Antioquia-Colombia</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3214321</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" ref="G3:G4" si="0">C3&amp;"-"&amp;D3</f>
+        <v>Marinilla-Antioquia-Colombia-CL 63 9 36</v>
+      </c>
+      <c r="H3" s="15" t="str">
+        <f>E3&amp;"-"&amp;F3</f>
+        <v>SucursalMarinilla@gmail.com-3214321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="5" t="str">
+        <v>35</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f>Ciudad!E4</f>
+        <v>Medellin-Antioquia-Colombia</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5632421</v>
+      </c>
+      <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Inventario-3</v>
-      </c>
+        <v>Medellin-Antioquia-Colombia-CR 2 5 39</v>
+      </c>
+      <c r="H4" s="15" t="str">
+        <f>E4&amp;"-"&amp;F4</f>
+        <v>SucursalPoblado@gmail.com-5632421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{2B6EFE98-886D-482A-B20E-687296015F04}"/>
+    <hyperlink ref="C3:C4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{BC45D5CC-AD1A-4653-96DD-CDBDC908237C}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0663BB21-9A43-4B1D-8A21-551F857989D3}"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{F9F2D69F-AEA3-489F-9DFD-69BF6E19218A}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{5F355592-918F-4243-92D4-800C7FC291AF}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{A86DA135-0247-4A09-A184-77E7675764A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC6D09-5BBA-4B68-A063-C1D4082A6FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1E950-751B-4E46-9074-9E1B23E2FD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -19,7 +19,11 @@
     <sheet name="Departamento" sheetId="7" r:id="rId4"/>
     <sheet name="Ciudad" sheetId="8" r:id="rId5"/>
     <sheet name="Sucursal" sheetId="5" r:id="rId6"/>
+    <sheet name="Instituciones" sheetId="9" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -193,13 +197,34 @@
   </si>
   <si>
     <t>Institucion</t>
+  </si>
+  <si>
+    <t>Combinación única Correo</t>
+  </si>
+  <si>
+    <t>Numero Identificacion</t>
+  </si>
+  <si>
+    <t>TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Trabajador</t>
+  </si>
+  <si>
+    <t>SpaOnline</t>
+  </si>
+  <si>
+    <t>SpaManitas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +250,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -323,6 +356,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -388,6 +422,75 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Institucion"/>
+      <sheetName val="Trabajador"/>
+      <sheetName val="Administrador"/>
+      <sheetName val="TipoIdentificacion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v xml:space="preserve">Jhonatan Arley Gómez </v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Cristian David Ospina Ospina</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Luis Ospina</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Juan Pablo Rendon Gómez</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v xml:space="preserve">Jhoana Andrea Gómez Gómez </v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Nathaly perez Zapata</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v xml:space="preserve">Camilo Saldarriaga </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>NIT</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,150 +1222,255 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1" t="str">
+        <f>Instituciones!B2</f>
+        <v>SpaOnline</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="D2" s="13" t="str">
         <f>Ciudad!E2</f>
         <v>Rionegro-Antioquia-Colombia</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>54323243</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>C2&amp;"-"&amp;D2</f>
+      <c r="H2" s="5" t="str">
+        <f>D2&amp;"-"&amp;E2</f>
         <v>Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
       </c>
-      <c r="H2" s="15" t="str">
-        <f>E2&amp;"-"&amp;F2</f>
-        <v>SucursalRionegro@gmail.com-54323243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="15" t="str">
+        <f>F2</f>
+        <v>SucursalRionegro@gmail.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1" t="str">
+        <f>Instituciones!B2</f>
+        <v>SpaOnline</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="D3" s="13" t="str">
         <f>Ciudad!E3</f>
         <v>Marinilla-Antioquia-Colombia</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>3214321</v>
       </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G4" si="0">C3&amp;"-"&amp;D3</f>
+      <c r="H3" s="5" t="str">
+        <f t="shared" ref="H3:H4" si="0">D3&amp;"-"&amp;E3</f>
         <v>Marinilla-Antioquia-Colombia-CL 63 9 36</v>
       </c>
-      <c r="H3" s="15" t="str">
-        <f>E3&amp;"-"&amp;F3</f>
-        <v>SucursalMarinilla@gmail.com-3214321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="15" t="str">
+        <f t="shared" ref="I3:I4" si="1">F3</f>
+        <v>SucursalMarinilla@gmail.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>Instituciones!B2</f>
+        <v>SpaOnline</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="str">
+      <c r="D4" s="13" t="str">
         <f>Ciudad!E4</f>
         <v>Medellin-Antioquia-Colombia</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>5632421</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="H4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Medellin-Antioquia-Colombia-CR 2 5 39</v>
       </c>
-      <c r="H4" s="15" t="str">
-        <f>E4&amp;"-"&amp;F4</f>
-        <v>SucursalPoblado@gmail.com-5632421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="10"/>
+      <c r="I4" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>SucursalPoblado@gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{2B6EFE98-886D-482A-B20E-687296015F04}"/>
-    <hyperlink ref="C3:C4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{BC45D5CC-AD1A-4653-96DD-CDBDC908237C}"/>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{0663BB21-9A43-4B1D-8A21-551F857989D3}"/>
-    <hyperlink ref="E3:E4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{F9F2D69F-AEA3-489F-9DFD-69BF6E19218A}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{5F355592-918F-4243-92D4-800C7FC291AF}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{A86DA135-0247-4A09-A184-77E7675764A2}"/>
+    <hyperlink ref="D2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{2B6EFE98-886D-482A-B20E-687296015F04}"/>
+    <hyperlink ref="D3:D4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{BC45D5CC-AD1A-4653-96DD-CDBDC908237C}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{0663BB21-9A43-4B1D-8A21-551F857989D3}"/>
+    <hyperlink ref="F3:F4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{F9F2D69F-AEA3-489F-9DFD-69BF6E19218A}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{5F355592-918F-4243-92D4-800C7FC291AF}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{A86DA135-0247-4A09-A184-77E7675764A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2969B-FD1B-4144-8E9C-71E2B5D0B86A}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1">
+        <v>900811919</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>[1]TipoIdentificacion!B3</f>
+        <v>NIT</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>[1]Administrador!B2&amp;"-"&amp;[1]Administrador!B3</f>
+        <v>Jhoana Andrea Gómez Gómez -Nathaly perez Zapata</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>[1]Trabajador!B2&amp;"-"&amp;[1]Trabajador!B3&amp;"-"&amp;[1]Trabajador!B4</f>
+        <v>Jhonatan Arley Gómez -Cristian David Ospina Ospina-Luis Ospina</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>811912382</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>[1]TipoIdentificacion!B3</f>
+        <v>NIT</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>[1]Administrador!B4</f>
+        <v xml:space="preserve">Camilo Saldarriaga </v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>[1]Trabajador!B5</f>
+        <v>Juan Pablo Rendon Gómez</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1E950-751B-4E46-9074-9E1B23E2FD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{B9D1E950-751B-4E46-9074-9E1B23E2FD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{656693FD-15D8-44DE-9459-28B9B23A97A4}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="Ciudad" sheetId="8" r:id="rId5"/>
     <sheet name="Sucursal" sheetId="5" r:id="rId6"/>
     <sheet name="Instituciones" sheetId="9" r:id="rId7"/>
+    <sheet name="Agenda" sheetId="10" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -218,6 +219,51 @@
   </si>
   <si>
     <t>SpaManitas</t>
+  </si>
+  <si>
+    <t>HorariosAtencion</t>
+  </si>
+  <si>
+    <t>8:00 am - 7:00 pm</t>
+  </si>
+  <si>
+    <t>3:00pm</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t>05/05/2024</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>28/04/2024</t>
+  </si>
+  <si>
+    <t>4:00pm</t>
+  </si>
+  <si>
+    <t>16/03/2024</t>
+  </si>
+  <si>
+    <t>HoraFin</t>
+  </si>
+  <si>
+    <t>HoraInicio</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Objeto de domino que representa la Disponibilidad de la sucursal para agendar las reservas</t>
   </si>
 </sst>
 </file>
@@ -323,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -357,6 +403,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -385,17 +432,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>401595</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544064</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38637</xdr:rowOff>
+      <xdr:rowOff>57690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA24E77-FA75-38A0-2106-FFD0789BA7F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A29705-1825-9C5D-0750-8C5A29556DEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,7 +459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11069595" cy="3848637"/>
+          <a:ext cx="8164064" cy="3867690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -439,9 +486,9 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -829,7 +876,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,15 +891,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -929,16 +976,30 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -948,7 +1009,7 @@
     <hyperlink ref="A3" location="Pais!A1" display="Pais" xr:uid="{25E02289-58A1-4493-A368-B398658061E0}"/>
     <hyperlink ref="A4" location="Departamento!A1" display="Departamento" xr:uid="{5D026B1D-2A71-48AE-98F7-6FB6CEFAF94D}"/>
     <hyperlink ref="A5" location="Ciudad!A1" display="Ciudad" xr:uid="{3DB588EF-D6FF-42B3-9C3C-3D065A0B0817}"/>
-    <hyperlink ref="A6" location="TipoIdentificacion!A1" display="TipoIdentificacion" xr:uid="{91E801FD-E3D2-4D3E-A38E-3A408F0036DE}"/>
+    <hyperlink ref="A7" location="TipoIdentificacion!A1" display="TipoIdentificacion" xr:uid="{91E801FD-E3D2-4D3E-A38E-3A408F0036DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1222,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,13 +1296,13 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1263,14 +1324,17 @@
       <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1294,16 +1358,19 @@
       <c r="G2" s="1">
         <v>54323243</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5" t="str">
         <f>D2&amp;"-"&amp;E2</f>
         <v>Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
       </c>
-      <c r="I2" s="15" t="str">
+      <c r="J2" s="15" t="str">
         <f>F2</f>
         <v>SucursalRionegro@gmail.com</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1327,16 +1394,19 @@
       <c r="G3" s="1">
         <v>3214321</v>
       </c>
-      <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H4" si="0">D3&amp;"-"&amp;E3</f>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I4" si="0">D3&amp;"-"&amp;E3</f>
         <v>Marinilla-Antioquia-Colombia-CL 63 9 36</v>
       </c>
-      <c r="I3" s="15" t="str">
-        <f t="shared" ref="I3:I4" si="1">F3</f>
+      <c r="J3" s="15" t="str">
+        <f t="shared" ref="J3:J4" si="1">F3</f>
         <v>SucursalMarinilla@gmail.com</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1360,19 +1430,22 @@
       <c r="G4" s="1">
         <v>5632421</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Medellin-Antioquia-Colombia-CR 2 5 39</v>
       </c>
-      <c r="I4" s="15" t="str">
+      <c r="J4" s="15" t="str">
         <f t="shared" si="1"/>
         <v>SucursalPoblado@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
     </row>
   </sheetData>
@@ -1473,4 +1546,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084951A6-DA5B-432E-8D4D-0B97AEC0152B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>C2&amp;"-"&amp;D2&amp;"-"&amp;B2</f>
+        <v>3:00pm-4:00pm-16/03/2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>C3&amp;"-"&amp;D3&amp;"-"&amp;B3</f>
+        <v>11:00am-12:00pm-28/04/2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>C4&amp;"-"&amp;D4&amp;"-"&amp;B4</f>
+        <v>2:00pm-3:00pm-05/05/2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{B9D1E950-751B-4E46-9074-9E1B23E2FD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{656693FD-15D8-44DE-9459-28B9B23A97A4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF57805-8B1C-4531-8E23-0C94A0E91C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="7" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Pais" sheetId="6" r:id="rId3"/>
     <sheet name="Departamento" sheetId="7" r:id="rId4"/>
     <sheet name="Ciudad" sheetId="8" r:id="rId5"/>
-    <sheet name="Sucursal" sheetId="5" r:id="rId6"/>
-    <sheet name="Instituciones" sheetId="9" r:id="rId7"/>
+    <sheet name="Spa" sheetId="9" r:id="rId6"/>
+    <sheet name="Sucursal" sheetId="5" r:id="rId7"/>
     <sheet name="Agenda" sheetId="10" r:id="rId8"/>
   </sheets>
   <externalReferences>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -161,9 +161,6 @@
     <t xml:space="preserve">Objeto de domino que contiene el nombre de las ciudades  que pertenecen a un departamento determinado </t>
   </si>
   <si>
-    <t xml:space="preserve">Objeto de domino que representa cada uno de los tipos de identificacion tributaria de los negocios en un pais </t>
-  </si>
-  <si>
     <t>Direccion</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Referenciado</t>
   </si>
   <si>
-    <t>Instituciones</t>
-  </si>
-  <si>
     <t>Institucion</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>SpaOnline</t>
   </si>
   <si>
-    <t>SpaManitas</t>
-  </si>
-  <si>
     <t>HorariosAtencion</t>
   </si>
   <si>
@@ -263,7 +254,13 @@
     <t>Agenda</t>
   </si>
   <si>
-    <t>Objeto de domino que representa la Disponibilidad de la sucursal para agendar las reservas</t>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Objeto de domino que contiene la información del spa y del personal</t>
+  </si>
+  <si>
+    <t>Objeto de domino que representa la disponibilidad de la sucursal para agendar las reservas</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,6 +401,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -432,17 +430,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>544064</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57690</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189596</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A29705-1825-9C5D-0750-8C5A29556DEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C97E6E1-035E-063E-2DF2-516A1265A005}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -459,7 +457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8164064" cy="3867690"/>
+          <a:ext cx="10793331" cy="4906060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -480,15 +478,15 @@
     <sheetNames>
       <sheetName val="Modelo de Dominio Anemico"/>
       <sheetName val="Objetos de dominio"/>
-      <sheetName val="Institucion"/>
+      <sheetName val="Spa"/>
       <sheetName val="Trabajador"/>
       <sheetName val="Administrador"/>
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -503,11 +501,6 @@
         <row r="4">
           <cell r="B4" t="str">
             <v>Luis Ospina</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Juan Pablo Rendon Gómez</v>
           </cell>
         </row>
       </sheetData>
@@ -875,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A2" zoomScale="83" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +887,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,10 +970,10 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>3</v>
@@ -989,18 +982,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1010,6 +1003,7 @@
     <hyperlink ref="A4" location="Departamento!A1" display="Departamento" xr:uid="{5D026B1D-2A71-48AE-98F7-6FB6CEFAF94D}"/>
     <hyperlink ref="A5" location="Ciudad!A1" display="Ciudad" xr:uid="{3DB588EF-D6FF-42B3-9C3C-3D065A0B0817}"/>
     <hyperlink ref="A7" location="TipoIdentificacion!A1" display="TipoIdentificacion" xr:uid="{91E801FD-E3D2-4D3E-A38E-3A408F0036DE}"/>
+    <hyperlink ref="A6" location="Agenda!A1" display="Agenda" xr:uid="{9023DA42-6D23-4E2B-9D0C-BD687D7D068B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1020,7 +1014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8CC05-D5A5-4217-82D6-119F47E099F6}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1282,12 +1278,119 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2969B-FD1B-4144-8E9C-71E2B5D0B86A}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1">
+        <v>900811919</v>
+      </c>
+      <c r="D2" s="20" t="str">
+        <f>[1]TipoIdentificacion!$B$3</f>
+        <v>NIT</v>
+      </c>
+      <c r="E2" s="20" t="str">
+        <f>[1]Administrador!B2</f>
+        <v xml:space="preserve">Jhoana Andrea Gómez Gómez </v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>[1]Trabajador!B2</f>
+        <v xml:space="preserve">Jhonatan Arley Gómez </v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1">
+        <v>900811919</v>
+      </c>
+      <c r="D3" s="20" t="str">
+        <f>[1]TipoIdentificacion!$B$3</f>
+        <v>NIT</v>
+      </c>
+      <c r="E3" s="20" t="str">
+        <f>[1]Administrador!B3</f>
+        <v>Nathaly perez Zapata</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>[1]Trabajador!B3</f>
+        <v>Cristian David Ospina Ospina</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1">
+        <v>900811919</v>
+      </c>
+      <c r="D4" s="20" t="str">
+        <f>[1]TipoIdentificacion!$B$3</f>
+        <v>NIT</v>
+      </c>
+      <c r="E4" s="20" t="str">
+        <f>[1]Administrador!B4</f>
+        <v xml:space="preserve">Camilo Saldarriaga </v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>[1]Trabajador!B4</f>
+        <v>Luis Ospina</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1307,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
@@ -1316,22 +1419,22 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1339,11 +1442,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>Instituciones!B2</f>
+        <f>Spa!B2</f>
         <v>SpaOnline</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="str">
         <f>Ciudad!E2</f>
@@ -1353,13 +1456,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1">
         <v>54323243</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>D2&amp;"-"&amp;E2</f>
@@ -1375,11 +1478,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>Instituciones!B2</f>
+        <f>Spa!B2</f>
         <v>SpaOnline</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13" t="str">
         <f>Ciudad!E3</f>
@@ -1389,13 +1492,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1">
         <v>3214321</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I4" si="0">D3&amp;"-"&amp;E3</f>
@@ -1411,11 +1514,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>Instituciones!B2</f>
+        <f>Spa!B2</f>
         <v>SpaOnline</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="13" t="str">
         <f>Ciudad!E4</f>
@@ -1425,13 +1528,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1">
         <v>5632421</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1462,98 +1565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2969B-FD1B-4144-8E9C-71E2B5D0B86A}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1">
-        <v>900811919</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>[1]TipoIdentificacion!B3</f>
-        <v>NIT</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>[1]Administrador!B2&amp;"-"&amp;[1]Administrador!B3</f>
-        <v>Jhoana Andrea Gómez Gómez -Nathaly perez Zapata</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <f>[1]Trabajador!B2&amp;"-"&amp;[1]Trabajador!B3&amp;"-"&amp;[1]Trabajador!B4</f>
-        <v>Jhonatan Arley Gómez -Cristian David Ospina Ospina-Luis Ospina</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>811912382</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>[1]TipoIdentificacion!B3</f>
-        <v>NIT</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>[1]Administrador!B4</f>
-        <v xml:space="preserve">Camilo Saldarriaga </v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>[1]Trabajador!B5</f>
-        <v>Juan Pablo Rendon Gómez</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084951A6-DA5B-432E-8D4D-0B97AEC0152B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,13 +1587,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>15</v>
@@ -1587,13 +1604,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>C2&amp;"-"&amp;D2&amp;"-"&amp;B2</f>
@@ -1605,13 +1622,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>C3&amp;"-"&amp;D3&amp;"-"&amp;B3</f>
@@ -1623,13 +1640,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>C4&amp;"-"&amp;D4&amp;"-"&amp;B4</f>

--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF57805-8B1C-4531-8E23-0C94A0E91C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD16CF-CB3E-47BC-BE93-334E76A11073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="7" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -401,7 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1322,11 +1321,11 @@
       <c r="C2" s="1">
         <v>900811919</v>
       </c>
-      <c r="D2" s="20" t="str">
+      <c r="D2" s="1" t="str">
         <f>[1]TipoIdentificacion!$B$3</f>
         <v>NIT</v>
       </c>
-      <c r="E2" s="20" t="str">
+      <c r="E2" s="1" t="str">
         <f>[1]Administrador!B2</f>
         <v xml:space="preserve">Jhoana Andrea Gómez Gómez </v>
       </c>
@@ -1345,11 +1344,11 @@
       <c r="C3" s="1">
         <v>900811919</v>
       </c>
-      <c r="D3" s="20" t="str">
+      <c r="D3" s="1" t="str">
         <f>[1]TipoIdentificacion!$B$3</f>
         <v>NIT</v>
       </c>
-      <c r="E3" s="20" t="str">
+      <c r="E3" s="1" t="str">
         <f>[1]Administrador!B3</f>
         <v>Nathaly perez Zapata</v>
       </c>
@@ -1368,11 +1367,11 @@
       <c r="C4" s="1">
         <v>900811919</v>
       </c>
-      <c r="D4" s="20" t="str">
+      <c r="D4" s="1" t="str">
         <f>[1]TipoIdentificacion!$B$3</f>
         <v>NIT</v>
       </c>
-      <c r="E4" s="20" t="str">
+      <c r="E4" s="1" t="str">
         <f>[1]Administrador!B4</f>
         <v xml:space="preserve">Camilo Saldarriaga </v>
       </c>
@@ -1570,7 +1569,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
+++ b/SpaOnline/ModeloDominio/Sucursales - Muestreo Datos .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD16CF-CB3E-47BC-BE93-334E76A11073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D6123-AD15-426C-84E2-8CA02901C139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="7" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -483,9 +483,9 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084951A6-DA5B-432E-8D4D-0B97AEC0152B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
